--- a/frontend/outputs/LP5042238D_invoice.xlsx
+++ b/frontend/outputs/LP5042238D_invoice.xlsx
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C12" s="43" t="n"/>
       <c r="D12" s="43" t="n">
-        <v>79.95697347792529</v>
+        <v>80.09338556106937</v>
       </c>
       <c r="E12" s="43" t="n"/>
       <c r="F12" s="43" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C13" s="43" t="n"/>
       <c r="D13" s="43" t="n">
-        <v>150.0398348525707</v>
+        <v>150.0018559819085</v>
       </c>
       <c r="E13" s="43" t="n"/>
       <c r="F13" s="43" t="n"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C14" s="43" t="n"/>
       <c r="D14" s="43" t="n">
-        <v>270.012697074476</v>
+        <v>269.9060153877571</v>
       </c>
       <c r="E14" s="43" t="n"/>
       <c r="F14" s="43" t="n"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C15" s="43" t="n"/>
       <c r="D15" s="43" t="n">
-        <v>700.0143636166904</v>
+        <v>699.906244854966</v>
       </c>
       <c r="E15" s="43" t="n"/>
       <c r="F15" s="43" t="n"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C16" s="43" t="n"/>
       <c r="D16" s="43" t="n">
-        <v>1800.046942284118</v>
+        <v>1799.90541550423</v>
       </c>
       <c r="E16" s="43" t="n"/>
       <c r="F16" s="43" t="n"/>

--- a/frontend/outputs/LP5042238D_invoice.xlsx
+++ b/frontend/outputs/LP5042238D_invoice.xlsx
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C12" s="43" t="n"/>
       <c r="D12" s="43" t="n">
-        <v>80.09338556106937</v>
+        <v>79.9893444708926</v>
       </c>
       <c r="E12" s="43" t="n"/>
       <c r="F12" s="43" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C13" s="43" t="n"/>
       <c r="D13" s="43" t="n">
-        <v>150.0018559819085</v>
+        <v>149.9348828692724</v>
       </c>
       <c r="E13" s="43" t="n"/>
       <c r="F13" s="43" t="n"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C14" s="43" t="n"/>
       <c r="D14" s="43" t="n">
-        <v>269.9060153877571</v>
+        <v>270.0702123968645</v>
       </c>
       <c r="E14" s="43" t="n"/>
       <c r="F14" s="43" t="n"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C15" s="43" t="n"/>
       <c r="D15" s="43" t="n">
-        <v>699.906244854966</v>
+        <v>700.0073764891574</v>
       </c>
       <c r="E15" s="43" t="n"/>
       <c r="F15" s="43" t="n"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C16" s="43" t="n"/>
       <c r="D16" s="43" t="n">
-        <v>1799.90541550423</v>
+        <v>1800.045385603364</v>
       </c>
       <c r="E16" s="43" t="n"/>
       <c r="F16" s="43" t="n"/>

--- a/frontend/outputs/LP5042238D_invoice.xlsx
+++ b/frontend/outputs/LP5042238D_invoice.xlsx
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C12" s="43" t="n"/>
       <c r="D12" s="43" t="n">
-        <v>79.9893444708926</v>
+        <v>80.07219814934579</v>
       </c>
       <c r="E12" s="43" t="n"/>
       <c r="F12" s="43" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C13" s="43" t="n"/>
       <c r="D13" s="43" t="n">
-        <v>149.9348828692724</v>
+        <v>150.0046119130469</v>
       </c>
       <c r="E13" s="43" t="n"/>
       <c r="F13" s="43" t="n"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C14" s="43" t="n"/>
       <c r="D14" s="43" t="n">
-        <v>270.0702123968645</v>
+        <v>270.0180359363197</v>
       </c>
       <c r="E14" s="43" t="n"/>
       <c r="F14" s="43" t="n"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C15" s="43" t="n"/>
       <c r="D15" s="43" t="n">
-        <v>700.0073764891574</v>
+        <v>699.98984206843</v>
       </c>
       <c r="E15" s="43" t="n"/>
       <c r="F15" s="43" t="n"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C16" s="43" t="n"/>
       <c r="D16" s="43" t="n">
-        <v>1800.045385603364</v>
+        <v>1799.970860641828</v>
       </c>
       <c r="E16" s="43" t="n"/>
       <c r="F16" s="43" t="n"/>
